--- a/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D609B0-EA5A-4E14-86B8-0DE89AEB67BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70BF79-DBA9-4789-9ACE-0F1043576911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="27135" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="26715" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -27,11 +27,22 @@
     <definedName name="_ftnref4" localSheetId="0">'Document Type'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="549">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1696,6 +1707,27 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t009:1.0::2.2</t>
+  </si>
+  <si>
+    <t>JP BIS Self-Billing Invoice</t>
+  </si>
+  <si>
+    <t>JP BIS Self-Billing Credit Note</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:selfbilling-1@jp-1::2.1</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:selfbilling-1@jp-1::2.1</t>
+  </si>
+  <si>
+    <t>TICC-254</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:bis:selfbilling</t>
   </si>
 </sst>
 </file>
@@ -2299,11 +2331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8368,6 +8400,66 @@
         <v>130</v>
       </c>
     </row>
+    <row r="197" spans="1:12">
+      <c r="A197" t="s">
+        <v>542</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="I197" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L197" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="30">
+      <c r="A198" t="s">
+        <v>543</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="I198" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L198" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70BF79-DBA9-4789-9ACE-0F1043576911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D62F09-5F2D-43B1-92B5-1D31EE69B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="26715" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -1836,7 +1836,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1881,15 +1881,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1901,9 +1892,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1918,8 +1906,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2333,9 +2345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2343,14 +2355,14 @@
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="5"/>
-    <col min="11" max="11" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="26"/>
+    <col min="11" max="11" width="19.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="74.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -2365,10 +2377,10 @@
       <c r="C1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>367</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -2383,10 +2395,10 @@
       <c r="I1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="25" t="s">
         <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2403,10 +2415,10 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F2" s="6">
@@ -2416,10 +2428,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="26">
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2436,10 +2448,10 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F3" s="6">
@@ -2449,10 +2461,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="26">
+        <v>1</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2469,10 +2481,10 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F4" s="6">
@@ -2482,10 +2494,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2502,10 +2514,10 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F5" s="6">
@@ -2515,10 +2527,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -2535,10 +2547,10 @@
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F6" s="6">
@@ -2548,10 +2560,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -2568,10 +2580,10 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F7" s="6">
@@ -2581,10 +2593,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="26">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -2601,10 +2613,10 @@
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F8" s="6">
@@ -2614,10 +2626,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -2634,10 +2646,10 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F9" s="6">
@@ -2647,10 +2659,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="26">
+        <v>1</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -2667,10 +2679,10 @@
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F10" s="6">
@@ -2683,10 +2695,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="26">
         <v>2</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -2703,10 +2715,10 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="31">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F11" s="6">
@@ -2716,10 +2728,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="26">
         <v>2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -2736,10 +2748,10 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F12" s="6">
@@ -2749,10 +2761,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="26">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -2769,10 +2781,10 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F13" s="6">
@@ -2782,10 +2794,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="26">
         <v>2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -2802,10 +2814,10 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F14" s="6">
@@ -2815,10 +2827,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -2835,10 +2847,10 @@
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F15" s="6">
@@ -2848,10 +2860,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="26">
+        <v>1</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -2868,10 +2880,10 @@
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F16" s="6">
@@ -2881,10 +2893,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="26">
+        <v>1</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -2901,10 +2913,10 @@
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F17" s="6">
@@ -2914,10 +2926,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="26">
         <v>2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -2934,10 +2946,10 @@
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F18" s="6">
@@ -2947,10 +2959,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="26">
         <v>2</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -2967,10 +2979,10 @@
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F19" s="6">
@@ -2980,10 +2992,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="26">
+        <v>1</v>
+      </c>
+      <c r="K19" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -3000,10 +3012,10 @@
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F20" s="6">
@@ -3013,10 +3025,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="J20" s="26">
+        <v>1</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -3033,10 +3045,10 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F21" s="6">
@@ -3046,10 +3058,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="J21" s="26">
+        <v>1</v>
+      </c>
+      <c r="K21" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -3066,10 +3078,10 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F22" s="6">
@@ -3079,10 +3091,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="J22" s="26">
+        <v>1</v>
+      </c>
+      <c r="K22" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -3099,10 +3111,10 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F23" s="6">
@@ -3112,10 +3124,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="26">
+        <v>1</v>
+      </c>
+      <c r="K23" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -3132,10 +3144,10 @@
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F24" s="6">
@@ -3145,10 +3157,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="26">
+        <v>1</v>
+      </c>
+      <c r="K24" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -3165,10 +3177,10 @@
       <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F25" s="6">
@@ -3178,7 +3190,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -3195,17 +3207,17 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -3222,10 +3234,10 @@
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F27" s="6">
@@ -3235,10 +3247,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="J27" s="26">
+        <v>1</v>
+      </c>
+      <c r="K27" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -3255,10 +3267,10 @@
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F28" s="6">
@@ -3271,10 +3283,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="J28" s="26">
+        <v>1</v>
+      </c>
+      <c r="K28" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -3291,10 +3303,10 @@
       <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="31">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F29" s="6">
@@ -3304,10 +3316,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="J29" s="26">
+        <v>1</v>
+      </c>
+      <c r="K29" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -3324,10 +3336,10 @@
       <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F30" s="6">
@@ -3337,10 +3349,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="J30" s="26">
+        <v>1</v>
+      </c>
+      <c r="K30" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L30" s="5" t="s">
@@ -3357,10 +3369,10 @@
       <c r="C31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F31" s="6">
@@ -3370,10 +3382,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="J31" s="26">
+        <v>1</v>
+      </c>
+      <c r="K31" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L31" s="5" t="s">
@@ -3390,20 +3402,20 @@
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="30">
         <v>2</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="26">
         <v>3</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
@@ -3420,20 +3432,20 @@
       <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="30">
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="26">
         <v>3</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L33" s="7" t="s">
@@ -3450,17 +3462,17 @@
       <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="31">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -3477,10 +3489,10 @@
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="31">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -3493,7 +3505,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L35" s="5" t="s">
@@ -3510,10 +3522,10 @@
       <c r="C36" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -3523,7 +3535,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L36" s="5" t="s">
@@ -3540,20 +3552,20 @@
       <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="30">
         <v>3</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="26">
         <v>3</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L37" s="7" t="s">
@@ -3570,20 +3582,20 @@
       <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="30">
         <v>3</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I38" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="J38" s="26">
+        <v>1</v>
+      </c>
+      <c r="K38" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L38" s="5" t="s">
@@ -3600,20 +3612,20 @@
       <c r="C39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="30">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I39" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5" t="s">
+      <c r="J39" s="26">
+        <v>1</v>
+      </c>
+      <c r="K39" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -3630,20 +3642,20 @@
       <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="30">
         <v>3</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I40" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -3660,20 +3672,20 @@
       <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="30">
         <v>3</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I41" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="J41" s="26">
+        <v>1</v>
+      </c>
+      <c r="K41" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -3690,20 +3702,20 @@
       <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="30">
         <v>3</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I42" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5" t="s">
+      <c r="J42" s="26">
+        <v>1</v>
+      </c>
+      <c r="K42" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -3720,131 +3732,134 @@
       <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="30">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I43" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="J43" s="26">
+        <v>1</v>
+      </c>
+      <c r="K43" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="21" customFormat="1" ht="30">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:12" s="18" customFormat="1" ht="30">
+      <c r="A44" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="32">
         <v>3</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="20">
         <v>5</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="21">
         <v>45070</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="I44" s="21" t="b">
+      <c r="I44" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K44" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L44" s="26" t="s">
+      <c r="J44" s="27"/>
+      <c r="K44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="21" customFormat="1" ht="30">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:12" s="18" customFormat="1" ht="30">
+      <c r="A45" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="32">
         <v>3</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="20">
         <v>5</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="21">
         <v>45070</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="I45" s="21" t="b">
+      <c r="I45" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K45" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="26" t="s">
+      <c r="J45" s="27"/>
+      <c r="K45" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="21" customFormat="1" ht="30">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:12" s="18" customFormat="1" ht="30">
+      <c r="A46" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="32">
         <v>3</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="20">
         <v>5</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="21">
         <v>45070</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="I46" s="21" t="b">
+      <c r="I46" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K46" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="26" t="s">
+      <c r="J46" s="27"/>
+      <c r="K46" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3858,10 +3873,10 @@
       <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="30">
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -3871,7 +3886,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -3888,10 +3903,10 @@
       <c r="C48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="30">
         <v>3</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -3901,7 +3916,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -3918,10 +3933,10 @@
       <c r="C49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="30">
         <v>3</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -3931,7 +3946,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -3948,10 +3963,10 @@
       <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="30">
         <v>3</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -3961,7 +3976,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L50" s="7" t="s">
@@ -3978,10 +3993,10 @@
       <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="30">
         <v>4</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F51" s="6">
@@ -3991,10 +4006,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5" t="s">
+      <c r="J51" s="26">
+        <v>1</v>
+      </c>
+      <c r="K51" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -4011,20 +4026,20 @@
       <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="30">
         <v>4</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="26">
         <v>3</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L52" s="5" t="s">
@@ -4041,20 +4056,20 @@
       <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="30">
         <v>4</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="26">
         <v>3</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L53" s="7" t="s">
@@ -4071,10 +4086,10 @@
       <c r="C54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="30">
         <v>4</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -4084,10 +4099,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="26">
         <v>3</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
@@ -4104,20 +4119,20 @@
       <c r="C55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="30">
         <v>4</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="26">
         <v>3</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L55" s="7" t="s">
@@ -4134,20 +4149,20 @@
       <c r="C56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="30">
         <v>4</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="26">
         <v>3</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L56" s="7" t="s">
@@ -4164,20 +4179,20 @@
       <c r="C57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="30">
         <v>4</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="26">
         <v>3</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L57" s="7" t="s">
@@ -4194,20 +4209,20 @@
       <c r="C58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="30">
         <v>4</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="26">
         <v>3</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L58" s="7" t="s">
@@ -4224,20 +4239,20 @@
       <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="30">
         <v>4</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="26">
         <v>3</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L59" s="7" t="s">
@@ -4254,20 +4269,20 @@
       <c r="C60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="30">
         <v>4</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="26">
         <v>3</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L60" s="7" t="s">
@@ -4284,17 +4299,17 @@
       <c r="C61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="30">
         <v>4</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L61" s="7" t="s">
@@ -4311,17 +4326,17 @@
       <c r="C62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="30">
         <v>4</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L62" s="7" t="s">
@@ -4338,20 +4353,20 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="30">
         <v>4</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="26" t="s">
         <v>369</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="26">
         <v>3</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L63" s="7" t="s">
@@ -4368,10 +4383,10 @@
       <c r="C64" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="30">
         <v>4</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F64" s="6">
@@ -4384,10 +4399,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="26">
         <v>3</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L64" s="7" t="s">
@@ -4404,10 +4419,10 @@
       <c r="C65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="30">
         <v>6</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H65" s="5" t="s">
@@ -4417,121 +4432,124 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="26">
         <v>3</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A66" s="21" t="s">
+    <row r="66" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A66" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="32">
         <v>5</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="21">
         <v>45070</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="I66" s="21" t="b">
+      <c r="I66" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K66" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L66" s="26" t="s">
+      <c r="J66" s="27"/>
+      <c r="K66" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A67" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="32">
         <v>5</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="21">
         <v>45070</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="I67" s="21" t="b">
+      <c r="I67" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K67" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="26" t="s">
+      <c r="J67" s="27"/>
+      <c r="K67" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L67" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A68" s="21" t="s">
+    <row r="68" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A68" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="32">
         <v>5</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="21">
         <v>45070</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="I68" s="21" t="b">
+      <c r="I68" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K68" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L68" s="26" t="s">
+      <c r="J68" s="27"/>
+      <c r="K68" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L68" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4545,10 +4563,10 @@
       <c r="C69" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="30">
         <v>6</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -4558,7 +4576,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L69" s="7" t="s">
@@ -4575,10 +4593,10 @@
       <c r="C70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="30">
         <v>6</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H70" s="5" t="s">
@@ -4588,7 +4606,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L70" s="7" t="s">
@@ -4605,10 +4623,10 @@
       <c r="C71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="30">
         <v>6</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -4618,7 +4636,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L71" s="7" t="s">
@@ -4635,10 +4653,10 @@
       <c r="C72" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="30">
         <v>6</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H72" s="5" t="s">
@@ -4648,10 +4666,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="26">
         <v>3</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L72" s="7" t="s">
@@ -4668,10 +4686,10 @@
       <c r="C73" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="30">
         <v>6</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H73" s="5" t="s">
@@ -4681,10 +4699,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="26">
         <v>3</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L73" s="7" t="s">
@@ -4701,10 +4719,10 @@
       <c r="C74" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="30">
         <v>6</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -4714,7 +4732,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L74" s="7" t="s">
@@ -4731,10 +4749,10 @@
       <c r="C75" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="30">
         <v>6</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H75" s="5" t="s">
@@ -4744,7 +4762,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L75" s="7" t="s">
@@ -4761,10 +4779,10 @@
       <c r="C76" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="30">
         <v>6</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H76" s="5" t="s">
@@ -4774,7 +4792,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K76" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L76" s="5" t="s">
@@ -4791,10 +4809,10 @@
       <c r="C77" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="30">
         <v>6</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H77" s="5" t="s">
@@ -4804,118 +4822,121 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A78" s="21" t="s">
+    <row r="78" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A78" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="32">
         <v>7</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="21">
         <v>45070</v>
       </c>
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="I78" s="21" t="b">
+      <c r="I78" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K78" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="26" t="s">
+      <c r="J78" s="27"/>
+      <c r="K78" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A79" s="21" t="s">
+    <row r="79" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A79" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="32">
         <v>7</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F79" s="27" t="s">
+      <c r="F79" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="21">
         <v>45070</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="I79" s="21" t="b">
+      <c r="I79" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K79" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L79" s="26" t="s">
+      <c r="J79" s="27"/>
+      <c r="K79" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A80" s="21" t="s">
+    <row r="80" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A80" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="32">
         <v>7</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="21">
         <v>45070</v>
       </c>
-      <c r="H80" s="21" t="s">
+      <c r="H80" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="I80" s="21" t="b">
+      <c r="I80" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K80" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L80" s="26" t="s">
+      <c r="J80" s="27"/>
+      <c r="K80" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L80" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4929,10 +4950,10 @@
       <c r="C81" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="30">
         <v>7</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -4942,7 +4963,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K81" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L81" s="7" t="s">
@@ -4959,10 +4980,10 @@
       <c r="C82" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="30">
         <v>7</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -4972,46 +4993,47 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="21" customFormat="1" ht="30">
-      <c r="A83" s="21" t="s">
+    <row r="83" spans="1:12" s="18" customFormat="1" ht="30">
+      <c r="A83" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="32">
         <v>7</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G83" s="21">
         <v>45070</v>
       </c>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="I83" s="21" t="b">
+      <c r="I83" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K83" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L83" s="26" t="s">
+      <c r="J83" s="27"/>
+      <c r="K83" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L83" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5025,10 +5047,10 @@
       <c r="C84" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -5038,118 +5060,121 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="21" customFormat="1" ht="60">
-      <c r="A85" s="21" t="s">
+    <row r="85" spans="1:12" s="18" customFormat="1" ht="60">
+      <c r="A85" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="32">
         <v>7</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="21">
         <v>45070</v>
       </c>
-      <c r="H85" s="21" t="s">
+      <c r="H85" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I85" s="21" t="b">
+      <c r="I85" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K85" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L85" s="26" t="s">
+      <c r="J85" s="27"/>
+      <c r="K85" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L85" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A86" s="21" t="s">
+    <row r="86" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A86" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="32">
         <v>7</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G86" s="21">
         <v>45070</v>
       </c>
-      <c r="H86" s="21" t="s">
+      <c r="H86" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="I86" s="21" t="b">
+      <c r="I86" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K86" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L86" s="26" t="s">
+      <c r="J86" s="27"/>
+      <c r="K86" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="21" customFormat="1" ht="45">
-      <c r="A87" s="21" t="s">
+    <row r="87" spans="1:12" s="18" customFormat="1" ht="45">
+      <c r="A87" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="32">
         <v>7</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G87" s="21">
         <v>45070</v>
       </c>
-      <c r="H87" s="21" t="s">
+      <c r="H87" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="I87" s="21" t="b">
+      <c r="I87" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K87" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L87" s="26" t="s">
+      <c r="J87" s="27"/>
+      <c r="K87" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L87" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5163,10 +5188,10 @@
       <c r="C88" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="30">
         <v>7</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H88" s="5" t="s">
@@ -5176,7 +5201,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="K88" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L88" s="7" t="s">
@@ -5193,10 +5218,10 @@
       <c r="C89" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89" s="30">
         <v>7</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F89" s="8" t="s">
@@ -5210,7 +5235,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K89" s="5" t="s">
+      <c r="K89" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L89" s="5" t="s">
@@ -5227,10 +5252,10 @@
       <c r="C90" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="30">
         <v>7</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -5244,7 +5269,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K90" s="5" t="s">
+      <c r="K90" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L90" s="5" t="s">
@@ -5261,10 +5286,10 @@
       <c r="C91" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D91" s="30">
         <v>7</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F91" s="8" t="s">
@@ -5278,7 +5303,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K91" s="5" t="s">
+      <c r="K91" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L91" s="5" t="s">
@@ -5295,10 +5320,10 @@
       <c r="C92" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="30">
         <v>7</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="26" t="s">
         <v>368</v>
       </c>
       <c r="F92" s="8" t="s">
@@ -5312,7 +5337,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K92" s="5" t="s">
+      <c r="K92" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L92" s="5" t="s">
@@ -5329,10 +5354,10 @@
       <c r="C93" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="30">
         <v>7</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H93" s="5" t="s">
@@ -5342,7 +5367,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K93" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L93" s="5" t="s">
@@ -5359,10 +5384,10 @@
       <c r="C94" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="30">
         <v>7</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H94" s="5" t="s">
@@ -5372,7 +5397,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L94" s="5" t="s">
@@ -5389,10 +5414,10 @@
       <c r="C95" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D95" s="30">
         <v>7</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -5402,7 +5427,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="K95" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L95" s="5" t="s">
@@ -5419,10 +5444,10 @@
       <c r="C96" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H96" s="5" t="s">
@@ -5432,7 +5457,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K96" s="5" t="s">
+      <c r="K96" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -5449,10 +5474,10 @@
       <c r="C97" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H97" s="5" t="s">
@@ -5462,46 +5487,47 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K97" s="5" t="s">
+      <c r="K97" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="21" customFormat="1" ht="60">
-      <c r="A98" s="21" t="s">
+    <row r="98" spans="1:12" s="18" customFormat="1" ht="60">
+      <c r="A98" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="21" t="s">
+      <c r="B98" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="21">
         <v>45070</v>
       </c>
-      <c r="H98" s="21" t="s">
+      <c r="H98" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="I98" s="21" t="b">
+      <c r="I98" s="18" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K98" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L98" s="26" t="s">
+      <c r="J98" s="27"/>
+      <c r="K98" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L98" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5515,10 +5541,10 @@
       <c r="C99" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H99" s="5" t="s">
@@ -5528,7 +5554,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K99" s="5" t="s">
+      <c r="K99" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L99" s="7" t="s">
@@ -5545,10 +5571,10 @@
       <c r="C100" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H100" s="5" t="s">
@@ -5558,7 +5584,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K100" s="5" t="s">
+      <c r="K100" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L100" s="5" t="s">
@@ -5575,10 +5601,10 @@
       <c r="C101" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -5588,7 +5614,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K101" s="5" t="s">
+      <c r="K101" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L101" s="7" t="s">
@@ -5605,10 +5631,10 @@
       <c r="C102" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H102" s="5" t="s">
@@ -5618,7 +5644,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K102" s="5" t="s">
+      <c r="K102" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L102" s="11" t="s">
@@ -5635,10 +5661,10 @@
       <c r="C103" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H103" s="5" t="s">
@@ -5662,10 +5688,10 @@
       <c r="C104" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -5675,7 +5701,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
@@ -5692,10 +5718,10 @@
       <c r="C105" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -5705,7 +5731,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K105" s="5" t="s">
+      <c r="K105" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L105" s="5" t="s">
@@ -5722,10 +5748,10 @@
       <c r="C106" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H106" s="5" t="s">
@@ -5735,7 +5761,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K106" s="5" t="s">
+      <c r="K106" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L106" s="5" t="s">
@@ -5752,10 +5778,10 @@
       <c r="C107" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -5765,7 +5791,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K107" s="5" t="s">
+      <c r="K107" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
@@ -5782,10 +5808,10 @@
       <c r="C108" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -5795,7 +5821,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L108" s="5" t="s">
@@ -5812,10 +5838,10 @@
       <c r="C109" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -5825,7 +5851,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L109" s="5" t="s">
@@ -5842,10 +5868,10 @@
       <c r="C110" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -5855,7 +5881,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K110" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L110" s="5" t="s">
@@ -5872,10 +5898,10 @@
       <c r="C111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -5885,7 +5911,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K111" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L111" s="5" t="s">
@@ -5902,10 +5928,10 @@
       <c r="C112" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -5915,7 +5941,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L112" s="5" t="s">
@@ -5932,10 +5958,10 @@
       <c r="C113" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -5945,7 +5971,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L113" s="5" t="s">
@@ -5962,10 +5988,10 @@
       <c r="C114" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -5975,7 +6001,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L114" s="5" t="s">
@@ -5992,10 +6018,10 @@
       <c r="C115" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -6005,7 +6031,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L115" s="5" t="s">
@@ -6022,10 +6048,10 @@
       <c r="C116" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -6035,7 +6061,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L116" s="5" t="s">
@@ -6052,10 +6078,10 @@
       <c r="C117" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -6065,7 +6091,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L117" s="5" t="s">
@@ -6082,10 +6108,10 @@
       <c r="C118" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -6095,7 +6121,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L118" s="5" t="s">
@@ -6112,10 +6138,10 @@
       <c r="C119" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -6125,7 +6151,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L119" s="5" t="s">
@@ -6142,10 +6168,10 @@
       <c r="C120" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -6155,7 +6181,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L120" s="5" t="s">
@@ -6172,10 +6198,10 @@
       <c r="C121" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -6185,7 +6211,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L121" s="5" t="s">
@@ -6202,10 +6228,10 @@
       <c r="C122" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -6215,7 +6241,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L122" s="5" t="s">
@@ -6232,10 +6258,10 @@
       <c r="C123" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -6245,7 +6271,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L123" s="5" t="s">
@@ -6262,10 +6288,10 @@
       <c r="C124" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -6275,7 +6301,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K124" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L124" s="5" t="s">
@@ -6292,10 +6318,10 @@
       <c r="C125" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -6305,7 +6331,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L125" s="5" t="s">
@@ -6322,10 +6348,10 @@
       <c r="C126" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -6335,7 +6361,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L126" s="5" t="s">
@@ -6352,10 +6378,10 @@
       <c r="C127" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -6365,7 +6391,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L127" s="5" t="s">
@@ -6382,10 +6408,10 @@
       <c r="C128" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -6395,7 +6421,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L128" s="5" t="s">
@@ -6412,10 +6438,10 @@
       <c r="C129" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -6425,7 +6451,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="28" t="s">
         <v>366</v>
       </c>
       <c r="L129" s="5" t="s">
@@ -6442,10 +6468,10 @@
       <c r="C130" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -6454,10 +6480,10 @@
       <c r="I130" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J130" s="5">
-        <v>1</v>
-      </c>
-      <c r="K130" s="5" t="s">
+      <c r="J130" s="26">
+        <v>1</v>
+      </c>
+      <c r="K130" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
@@ -6474,10 +6500,10 @@
       <c r="C131" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -6486,10 +6512,10 @@
       <c r="I131" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J131" s="5">
-        <v>1</v>
-      </c>
-      <c r="K131" s="5" t="s">
+      <c r="J131" s="26">
+        <v>1</v>
+      </c>
+      <c r="K131" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
@@ -6506,10 +6532,10 @@
       <c r="C132" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -6518,10 +6544,10 @@
       <c r="I132" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J132" s="5">
-        <v>1</v>
-      </c>
-      <c r="K132" s="5" t="s">
+      <c r="J132" s="26">
+        <v>1</v>
+      </c>
+      <c r="K132" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
@@ -6538,10 +6564,10 @@
       <c r="C133" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -6550,10 +6576,10 @@
       <c r="I133" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J133" s="5">
-        <v>1</v>
-      </c>
-      <c r="K133" s="5" t="s">
+      <c r="J133" s="26">
+        <v>1</v>
+      </c>
+      <c r="K133" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
@@ -6570,10 +6596,10 @@
       <c r="C134" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -6582,7 +6608,7 @@
       <c r="I134" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K134" s="5" t="s">
+      <c r="K134" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L134" s="5" t="s">
@@ -6599,10 +6625,10 @@
       <c r="C135" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -6611,7 +6637,7 @@
       <c r="I135" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K135" s="5" t="s">
+      <c r="K135" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L135" s="5" t="s">
@@ -6628,10 +6654,10 @@
       <c r="C136" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -6640,7 +6666,7 @@
       <c r="I136" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K136" s="5" t="s">
+      <c r="K136" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L136" s="5" t="s">
@@ -6657,10 +6683,10 @@
       <c r="C137" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -6669,7 +6695,7 @@
       <c r="I137" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K137" s="5" t="s">
+      <c r="K137" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L137" s="5" t="s">
@@ -6686,10 +6712,10 @@
       <c r="C138" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -6698,7 +6724,7 @@
       <c r="I138" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L138" s="5" t="s">
@@ -6715,10 +6741,10 @@
       <c r="C139" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E139" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -6727,7 +6753,7 @@
       <c r="I139" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K139" s="5" t="s">
+      <c r="K139" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L139" s="5" t="s">
@@ -6744,10 +6770,10 @@
       <c r="C140" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -6756,7 +6782,7 @@
       <c r="I140" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K140" s="5" t="s">
+      <c r="K140" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L140" s="5" t="s">
@@ -6773,10 +6799,10 @@
       <c r="C141" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -6785,7 +6811,7 @@
       <c r="I141" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="5" t="s">
+      <c r="K141" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L141" s="5" t="s">
@@ -6802,10 +6828,10 @@
       <c r="C142" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -6814,7 +6840,7 @@
       <c r="I142" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="5" t="s">
+      <c r="K142" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L142" s="5" t="s">
@@ -6831,10 +6857,10 @@
       <c r="C143" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E143" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -6843,7 +6869,7 @@
       <c r="I143" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="5" t="s">
+      <c r="K143" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L143" s="5" t="s">
@@ -6860,10 +6886,10 @@
       <c r="C144" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -6872,7 +6898,7 @@
       <c r="I144" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L144" s="5" t="s">
@@ -6889,10 +6915,10 @@
       <c r="C145" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -6901,7 +6927,7 @@
       <c r="I145" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K145" s="5" t="s">
+      <c r="K145" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L145" s="5" t="s">
@@ -6918,10 +6944,10 @@
       <c r="C146" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -6930,7 +6956,7 @@
       <c r="I146" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="5" t="s">
+      <c r="K146" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L146" s="5" t="s">
@@ -6947,10 +6973,10 @@
       <c r="C147" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H147" s="5" t="s">
@@ -6959,7 +6985,7 @@
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="5" t="s">
+      <c r="K147" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
@@ -6976,10 +7002,10 @@
       <c r="C148" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H148" s="5" t="s">
@@ -6988,7 +7014,7 @@
       <c r="I148" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K148" s="5" t="s">
+      <c r="K148" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L148" s="7" t="s">
@@ -7005,10 +7031,10 @@
       <c r="C149" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -7017,7 +7043,7 @@
       <c r="I149" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="5" t="s">
+      <c r="K149" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L149" s="7" t="s">
@@ -7034,10 +7060,10 @@
       <c r="C150" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -7046,7 +7072,7 @@
       <c r="I150" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K150" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L150" s="7" t="s">
@@ -7063,10 +7089,10 @@
       <c r="C151" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -7075,7 +7101,7 @@
       <c r="I151" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K151" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L151" s="7" t="s">
@@ -7092,10 +7118,10 @@
       <c r="C152" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -7104,7 +7130,7 @@
       <c r="I152" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="5" t="s">
+      <c r="K152" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L152" s="7" t="s">
@@ -7121,10 +7147,10 @@
       <c r="C153" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -7133,7 +7159,7 @@
       <c r="I153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K153" s="5" t="s">
+      <c r="K153" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L153" s="7" t="s">
@@ -7150,10 +7176,10 @@
       <c r="C154" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -7162,7 +7188,7 @@
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="5" t="s">
+      <c r="K154" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L154" s="5" t="s">
@@ -7179,10 +7205,10 @@
       <c r="C155" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -7191,7 +7217,7 @@
       <c r="I155" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K155" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L155" s="5" t="s">
@@ -7208,10 +7234,10 @@
       <c r="C156" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -7220,7 +7246,7 @@
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="5" t="s">
+      <c r="K156" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L156" s="5" t="s">
@@ -7237,10 +7263,10 @@
       <c r="C157" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -7249,7 +7275,7 @@
       <c r="I157" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K157" s="5" t="s">
+      <c r="K157" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
@@ -7266,10 +7292,10 @@
       <c r="C158" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -7278,7 +7304,7 @@
       <c r="I158" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K158" s="5" t="s">
+      <c r="K158" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
@@ -7295,10 +7321,10 @@
       <c r="C159" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -7307,7 +7333,7 @@
       <c r="I159" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K159" s="5" t="s">
+      <c r="K159" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
@@ -7324,10 +7350,10 @@
       <c r="C160" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -7336,7 +7362,7 @@
       <c r="I160" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K160" s="5" t="s">
+      <c r="K160" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
@@ -7353,10 +7379,10 @@
       <c r="C161" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -7365,7 +7391,7 @@
       <c r="I161" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K161" s="5" t="s">
+      <c r="K161" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
@@ -7382,10 +7408,10 @@
       <c r="C162" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -7394,7 +7420,7 @@
       <c r="I162" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K162" s="5" t="s">
+      <c r="K162" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
@@ -7411,10 +7437,10 @@
       <c r="C163" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -7423,7 +7449,7 @@
       <c r="I163" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K163" s="5" t="s">
+      <c r="K163" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
@@ -7440,10 +7466,10 @@
       <c r="C164" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -7452,7 +7478,7 @@
       <c r="I164" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K164" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
@@ -7469,10 +7495,10 @@
       <c r="C165" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -7481,7 +7507,7 @@
       <c r="I165" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K165" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
@@ -7498,10 +7524,10 @@
       <c r="C166" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -7510,7 +7536,7 @@
       <c r="I166" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K166" s="5" t="s">
+      <c r="K166" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
@@ -7527,10 +7553,10 @@
       <c r="C167" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H167" s="5" t="s">
@@ -7539,7 +7565,7 @@
       <c r="I167" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K167" s="5" t="s">
+      <c r="K167" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
@@ -7556,10 +7582,10 @@
       <c r="C168" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H168" s="5" t="s">
@@ -7568,7 +7594,7 @@
       <c r="I168" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K168" s="5" t="s">
+      <c r="K168" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
@@ -7585,10 +7611,10 @@
       <c r="C169" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H169" s="5" t="s">
@@ -7597,7 +7623,7 @@
       <c r="I169" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K169" s="5" t="s">
+      <c r="K169" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
@@ -7614,10 +7640,10 @@
       <c r="C170" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H170" s="5" t="s">
@@ -7626,7 +7652,7 @@
       <c r="I170" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K170" s="5" t="s">
+      <c r="K170" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L170" s="5" t="s">
@@ -7643,10 +7669,10 @@
       <c r="C171" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D171" s="18" t="s">
+      <c r="D171" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H171" s="5" t="s">
@@ -7655,7 +7681,7 @@
       <c r="I171" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K171" s="5" t="s">
+      <c r="K171" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L171" s="5" t="s">
@@ -7672,10 +7698,10 @@
       <c r="C172" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H172" s="5" t="s">
@@ -7684,7 +7710,7 @@
       <c r="I172" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K172" s="5" t="s">
+      <c r="K172" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L172" s="5" t="s">
@@ -7701,10 +7727,10 @@
       <c r="C173" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H173" s="5" t="s">
@@ -7713,7 +7739,7 @@
       <c r="I173" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K173" s="5" t="s">
+      <c r="K173" s="26" t="s">
         <v>116</v>
       </c>
       <c r="L173" s="5" t="s">
@@ -7730,10 +7756,10 @@
       <c r="C174" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H174" s="5" t="s">
@@ -7742,7 +7768,7 @@
       <c r="I174" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K174" s="5" t="s">
+      <c r="K174" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L174" s="7" t="s">
@@ -7759,10 +7785,10 @@
       <c r="C175" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H175" s="5" t="s">
@@ -7771,7 +7797,7 @@
       <c r="I175" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K175" s="5" t="s">
+      <c r="K175" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L175" s="7" t="s">
@@ -7788,10 +7814,10 @@
       <c r="C176" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H176" s="5" t="s">
@@ -7800,7 +7826,7 @@
       <c r="I176" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K176" s="5" t="s">
+      <c r="K176" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L176" s="7" t="s">
@@ -7817,10 +7843,10 @@
       <c r="C177" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H177" s="5" t="s">
@@ -7829,7 +7855,7 @@
       <c r="I177" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="5" t="s">
+      <c r="K177" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L177" s="7" t="s">
@@ -7846,10 +7872,10 @@
       <c r="C178" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H178" s="5" t="s">
@@ -7858,7 +7884,7 @@
       <c r="I178" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="5" t="s">
+      <c r="K178" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L178" s="7" t="s">
@@ -7875,10 +7901,10 @@
       <c r="C179" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H179" s="5" t="s">
@@ -7887,7 +7913,7 @@
       <c r="I179" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K179" s="5" t="s">
+      <c r="K179" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L179" s="7" t="s">
@@ -7904,10 +7930,10 @@
       <c r="C180" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H180" s="5" t="s">
@@ -7916,7 +7942,7 @@
       <c r="I180" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K180" s="5" t="s">
+      <c r="K180" s="26" t="s">
         <v>453</v>
       </c>
       <c r="L180" s="5" t="s">
@@ -7933,10 +7959,10 @@
       <c r="C181" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H181" s="5" t="s">
@@ -7945,7 +7971,7 @@
       <c r="I181" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K181" s="5" t="s">
+      <c r="K181" s="26" t="s">
         <v>453</v>
       </c>
       <c r="L181" s="5" t="s">
@@ -7962,10 +7988,10 @@
       <c r="C182" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H182" s="5" t="s">
@@ -7974,10 +8000,10 @@
       <c r="I182" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K182" s="5" t="s">
+      <c r="K182" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="L182" s="20" t="s">
+      <c r="L182" s="17" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7991,10 +8017,10 @@
       <c r="C183" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H183" s="5" t="s">
@@ -8003,10 +8029,10 @@
       <c r="I183" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K183" s="5" t="s">
+      <c r="K183" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="L183" s="19" t="s">
+      <c r="L183" s="16" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8020,10 +8046,10 @@
       <c r="C184" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H184" s="5" t="s">
@@ -8032,10 +8058,10 @@
       <c r="I184" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K184" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="L184" s="19" t="s">
+      <c r="L184" s="16" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8049,10 +8075,10 @@
       <c r="C185" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D185" s="17" t="s">
+      <c r="D185" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H185" s="5" t="s">
@@ -8061,7 +8087,7 @@
       <c r="I185" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K185" s="5" t="s">
+      <c r="K185" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L185" s="5" t="s">
@@ -8078,10 +8104,10 @@
       <c r="C186" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="D186" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H186" s="5" t="s">
@@ -8090,7 +8116,7 @@
       <c r="I186" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K186" s="5" t="s">
+      <c r="K186" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L186" s="5" t="s">
@@ -8107,10 +8133,10 @@
       <c r="C187" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D187" s="17" t="s">
+      <c r="D187" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H187" s="5" t="s">
@@ -8120,10 +8146,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J187" s="5">
+      <c r="J187" s="26">
         <v>3</v>
       </c>
-      <c r="K187" s="5" t="s">
+      <c r="K187" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L187" s="7" t="s">
@@ -8140,10 +8166,10 @@
       <c r="C188" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D188" s="17" t="s">
+      <c r="D188" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H188" s="5" t="s">
@@ -8152,10 +8178,10 @@
       <c r="I188" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J188" s="5">
+      <c r="J188" s="26">
         <v>3</v>
       </c>
-      <c r="K188" s="5" t="s">
+      <c r="K188" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L188" s="5" t="s">
@@ -8172,10 +8198,10 @@
       <c r="C189" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D189" s="17" t="s">
+      <c r="D189" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H189" s="5" t="s">
@@ -8184,10 +8210,10 @@
       <c r="I189" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J189" s="5">
+      <c r="J189" s="26">
         <v>3</v>
       </c>
-      <c r="K189" s="5" t="s">
+      <c r="K189" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
@@ -8204,10 +8230,10 @@
       <c r="C190" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D190" s="17" t="s">
+      <c r="D190" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H190" s="5" t="s">
@@ -8216,10 +8242,10 @@
       <c r="I190" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J190" s="5">
+      <c r="J190" s="26">
         <v>3</v>
       </c>
-      <c r="K190" s="5" t="s">
+      <c r="K190" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
@@ -8236,10 +8262,10 @@
       <c r="C191" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H191" s="5" t="s">
@@ -8248,7 +8274,7 @@
       <c r="I191" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K191" s="5" t="s">
+      <c r="K191" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L191" s="7" t="s">
@@ -8265,10 +8291,10 @@
       <c r="C192" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H192" s="5" t="s">
@@ -8277,7 +8303,7 @@
       <c r="I192" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="5" t="s">
+      <c r="K192" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L192" s="7" t="s">
@@ -8294,10 +8320,10 @@
       <c r="C193" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H193" s="5" t="s">
@@ -8306,7 +8332,7 @@
       <c r="I193" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K193" s="5" t="s">
+      <c r="K193" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L193" s="7" t="s">
@@ -8323,10 +8349,10 @@
       <c r="C194" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H194" s="5" t="s">
@@ -8335,7 +8361,7 @@
       <c r="I194" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K194" s="5" t="s">
+      <c r="K194" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L194" s="7" t="s">
@@ -8352,10 +8378,10 @@
       <c r="C195" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H195" s="5" t="s">
@@ -8364,7 +8390,7 @@
       <c r="I195" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K195" s="5" t="s">
+      <c r="K195" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L195" s="7" t="s">
@@ -8381,10 +8407,10 @@
       <c r="C196" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H196" s="5" t="s">
@@ -8393,7 +8419,7 @@
       <c r="I196" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K196" s="5" t="s">
+      <c r="K196" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L196" s="7" t="s">
@@ -8410,10 +8436,10 @@
       <c r="C197" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="D197" s="17" t="s">
+      <c r="D197" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H197" s="5" t="s">
@@ -8423,7 +8449,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K197" s="5" t="s">
+      <c r="J197" s="26">
+        <v>3</v>
+      </c>
+      <c r="K197" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L197" s="7" t="s">
@@ -8440,10 +8469,10 @@
       <c r="C198" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="D198" s="17" t="s">
+      <c r="D198" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H198" s="5" t="s">
@@ -8453,7 +8482,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K198" s="5" t="s">
+      <c r="J198" s="26">
+        <v>3</v>
+      </c>
+      <c r="K198" s="26" t="s">
         <v>117</v>
       </c>
       <c r="L198" s="7" t="s">

--- a/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D62F09-5F2D-43B1-92B5-1D31EE69B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC171C0-816C-44EE-A97F-8DC3A2D4F982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$214</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="591">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>urn:oasis:names:tc:ebxml-regrep:xsd:query:4.0::QueryResponse##urn:fdc:peppol.eu:prac:trns:t012:1.1::4.0</t>
   </si>
   <si>
-    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:TenderWithdrawal-2::TenderWithdrawal##urn:fdc:peppol.eu:prac:trns:t013:1.1::2.2             </t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:TenderReceipt-2::TenderReceipt##urn:fdc:peppol.eu:prac:trns:t014:1.1::2.2</t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:prac:trns:t016:1.1::2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:AwardedNotification-2::AwardedNotification##urn:fdc:peppol.eu:prac:trns:t017:1.4::2.2             </t>
   </si>
   <si>
     <t>TICC-199</t>
@@ -1728,6 +1722,141 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:peppol:bis:selfbilling</t>
+  </si>
+  <si>
+    <t>Procurement procedure subscription / Subscribe to Procedure V1.2</t>
+  </si>
+  <si>
+    <t>Procurement procedure subscription / Subscribe to Procedure Confirmation V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ExpressionOfInterestRequest-2::ExpressionOfInterestRequest##urn:fdc:peppol.eu:prac:trns:t001:1.2::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ExpressionOfInterestResponse-2::ExpressionOfInterestResponse##urn:fdc:peppol.eu:prac:trns:t002:1.2::2.2</t>
+  </si>
+  <si>
+    <t>TICC-252</t>
+  </si>
+  <si>
+    <t>Procurement procedure subscription / Unsubscribe from procedure V1.2</t>
+  </si>
+  <si>
+    <t>Procurement procedure subscription / Unsubscribe from procedure confirmation V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ExpressionOfInterestRequest-2::ExpressionOfInterestRequest##urn:fdc:peppol.eu:prac:trns:t021:1.2::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ExpressionOfInterestResponse-2::ExpressionOfInterestResponse##urn:fdc:peppol.eu:prac:trns:t022:1.2::2.2</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p001:1.2</t>
+  </si>
+  <si>
+    <t>Procurement document access / Tender Status Inquiry V1.2</t>
+  </si>
+  <si>
+    <t>Procurement document access / Call for Tenders V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderStatusRequest-2::TenderStatusRequest##urn:fdc:peppol.eu:prac:trns:t003:1.2::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CallForTenders-2::CallForTenders##urn:fdc:peppol.eu:prac:trns:t004:1.2::2.2</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p002:1.2</t>
+  </si>
+  <si>
+    <t>Tender Submission / Tender V1.2</t>
+  </si>
+  <si>
+    <t>Tender Submission / Tender Tender Reception Notification V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Tender-2::Tender##urn:fdc:peppol.eu:prac:trns:t005:1.2::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderReceipt-2::TenderReceipt##urn:fdc:peppol.eu:prac:trns:t006:1.2::2.2</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p003:1.2</t>
+  </si>
+  <si>
+    <t>Search Notices / Search Notice Response V1.2</t>
+  </si>
+  <si>
+    <t>Search Notices / Search Notice Request V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:ebxml-regrep:xsd:query:4.0::QueryRequest##urn:fdc:peppol.eu:prac:trns:t011:1.2::4.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:ebxml-regrep:xsd:query:4.0::QueryResponse##urn:fdc:peppol.eu:prac:trns:t012:1.2::4.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p006:1.2</t>
+  </si>
+  <si>
+    <t>Publish Notice / Publish Notice V1.2</t>
+  </si>
+  <si>
+    <t>Publish Notice / Notice Publication Response V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:ebxml-regrep:xsd:lcm:4.0::SubmitObjectsRequest##urn:fdc:peppol.eu:prac:trns:t015:1.2::4.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:prac:trns:t016:1.2::2.2</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p008:1.2</t>
+  </si>
+  <si>
+    <t>TICC-199
+TICC-252</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:AwardedNotification-2::AwardedNotification##urn:fdc:peppol.eu:prac:trns:t017:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:AwardedNotification-2::AwardedNotification##urn:fdc:peppol.eu:prac:trns:t017:1.4::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderWithdrawal-2::TenderWithdrawal##urn:fdc:peppol.eu:prac:trns:t013:1.1::2.2</t>
+  </si>
+  <si>
+    <t>Notify Awarding / Awarding Notification V1.1 (invalid)</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:prac:trns:t018:1.1::2.2</t>
+  </si>
+  <si>
+    <t>Tendering Message Response / Tendering Message Response V1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p010:1.1</t>
+  </si>
+  <si>
+    <t>Qualification / Qualification V1.1</t>
+  </si>
+  <si>
+    <t>Qualification / Qualification Reception Confirmation V1.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Qualification-2::Qualification##urn:fdc:peppol.eu:prac:trns:t019:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderReceipt-2::TenderReceipt##urn:fdc:peppol.eu:prac:trns:t020:1.1::2.2</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p011:1.1</t>
+  </si>
+  <si>
+    <t>TICC-199
+TICC-252
+Typo in Customization ID</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1927,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1808,6 +1937,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,7 +1971,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1857,9 +1992,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1876,9 +2008,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1932,6 +2061,37 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2009,6 +2169,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2343,11 +2506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2355,14 +2518,14 @@
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="26"/>
-    <col min="11" max="11" width="19.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="24"/>
+    <col min="11" max="11" width="19.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="74.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -2377,823 +2540,848 @@
       <c r="C1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>425</v>
+      <c r="F1" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="J1" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="35">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="G2" s="36"/>
+      <c r="I2" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J2" s="26">
-        <v>1</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="34">
+        <v>1</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="35">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="G3" s="36"/>
+      <c r="I3" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="34">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="35">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="G4" s="36"/>
+      <c r="I4" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="34">
+        <v>1</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A5" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="35">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="G5" s="36"/>
+      <c r="I5" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J5" s="26">
-        <v>1</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="34">
+        <v>1</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A6" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="35">
         <v>2</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="G6" s="36"/>
+      <c r="I6" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="J6" s="34">
+        <v>1</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A7" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="35">
         <v>2</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="G7" s="36"/>
+      <c r="I7" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J7" s="26">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="J7" s="34">
+        <v>1</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="35">
         <v>7</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="G8" s="36"/>
+      <c r="I8" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J8" s="26">
-        <v>1</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="J8" s="34">
+        <v>1</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="35">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="G9" s="36"/>
+      <c r="I9" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J9" s="26">
-        <v>1</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="J9" s="34">
+        <v>1</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A10" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="35">
         <v>3</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="34">
         <v>2</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="38">
         <v>3</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="35">
         <v>7</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="G11" s="36"/>
+      <c r="I11" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="34">
         <v>2</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="G12" s="36"/>
+      <c r="I12" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J12" s="26">
-        <v>1</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="J12" s="34">
+        <v>1</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="35">
         <v>7</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="G13" s="36"/>
+      <c r="I13" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A14" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="35">
         <v>2</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="G14" s="36"/>
+      <c r="I14" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J14" s="26">
-        <v>1</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="J14" s="34">
+        <v>1</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A15" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="35">
         <v>2</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="G15" s="36"/>
+      <c r="I15" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J15" s="26">
-        <v>1</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="J15" s="34">
+        <v>1</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A16" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="35">
         <v>2</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="G16" s="36"/>
+      <c r="I16" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="J16" s="34">
+        <v>1</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="45">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A17" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="35">
         <v>7</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="G17" s="36"/>
+      <c r="I17" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="34">
         <v>2</v>
       </c>
-      <c r="K17" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="45">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A18" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="35">
         <v>7</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="G18" s="36"/>
+      <c r="I18" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="34">
         <v>2</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="35">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="G19" s="36"/>
+      <c r="I19" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J19" s="26">
-        <v>1</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="J19" s="34">
+        <v>1</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A20" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="35">
         <v>7</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="G20" s="36"/>
+      <c r="I20" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J20" s="26">
-        <v>1</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="J20" s="34">
+        <v>1</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A21" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="35">
         <v>7</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="G21" s="36"/>
+      <c r="I21" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J21" s="26">
-        <v>1</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="J21" s="34">
+        <v>1</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A22" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="35">
         <v>7</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="G22" s="36"/>
+      <c r="I22" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J22" s="26">
-        <v>1</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="J22" s="34">
+        <v>1</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A23" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="35">
         <v>7</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="G23" s="36"/>
+      <c r="I23" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J23" s="26">
-        <v>1</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="5" t="s">
+      <c r="J23" s="34">
+        <v>1</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A24" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="35">
         <v>7</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="G24" s="36"/>
+      <c r="I24" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J24" s="26">
-        <v>1</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="5" t="s">
+      <c r="J24" s="34">
+        <v>1</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A25" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="35">
         <v>2</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="G25" s="36"/>
+      <c r="I25" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="5" t="s">
+      <c r="J25" s="34"/>
+      <c r="K25" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="37" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3207,194 +3395,199 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A27" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="35">
         <v>7</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="G27" s="36"/>
+      <c r="I27" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J27" s="26">
-        <v>1</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="J27" s="34">
+        <v>1</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="45">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A28" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="35">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="36"/>
+      <c r="H28" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J28" s="26">
-        <v>1</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="J28" s="34">
+        <v>1</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="45">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="38">
         <v>3</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="35">
         <v>7</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="G29" s="36"/>
+      <c r="I29" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J29" s="26">
-        <v>1</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="J29" s="34">
+        <v>1</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="35">
         <v>7</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="G30" s="36"/>
+      <c r="I30" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J30" s="26">
-        <v>1</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="J30" s="34">
+        <v>1</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="45">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A31" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="35">
         <v>7</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="G31" s="36"/>
+      <c r="I31" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J31" s="26">
-        <v>1</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="J31" s="34">
+        <v>1</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="37" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3402,20 +3595,20 @@
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <v>2</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="24">
         <v>3</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
@@ -3424,7 +3617,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3432,20 +3625,20 @@
       <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="28">
         <v>2</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="24">
         <v>3</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L33" s="7" t="s">
@@ -3462,53 +3655,55 @@
       <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="29">
         <v>3</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A35" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="38">
         <v>3</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="G35" s="36"/>
+      <c r="H35" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="I35" s="5" t="b">
+      <c r="I35" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K35" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L35" s="5" t="s">
+      <c r="J35" s="34"/>
+      <c r="K35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="37" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3522,10 +3717,10 @@
       <c r="C36" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -3535,7 +3730,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L36" s="5" t="s">
@@ -3544,7 +3739,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3552,314 +3747,356 @@
       <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="28">
         <v>3</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <v>3</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45">
-      <c r="A38" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="5" t="s">
+    <row r="38" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A38" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="33">
         <v>3</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I38" s="5" t="b">
+      <c r="E38" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I38" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J38" s="26">
-        <v>1</v>
-      </c>
-      <c r="K38" s="26" t="s">
+      <c r="J38" s="34">
+        <v>1</v>
+      </c>
+      <c r="K38" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45">
-      <c r="A39" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5" t="s">
+    <row r="39" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A39" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="33">
         <v>3</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I39" s="5" t="b">
+      <c r="E39" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I39" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J39" s="26">
-        <v>1</v>
-      </c>
-      <c r="K39" s="26" t="s">
+      <c r="J39" s="34">
+        <v>1</v>
+      </c>
+      <c r="K39" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45">
-      <c r="A40" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="5" t="s">
+    <row r="40" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A40" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="33">
         <v>3</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I40" s="5" t="b">
+      <c r="E40" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I40" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J40" s="26">
-        <v>1</v>
-      </c>
-      <c r="K40" s="26" t="s">
+      <c r="J40" s="34">
+        <v>1</v>
+      </c>
+      <c r="K40" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="45">
-      <c r="A41" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="5" t="s">
+    <row r="41" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A41" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="33">
         <v>3</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I41" s="5" t="b">
+      <c r="E41" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I41" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J41" s="26">
-        <v>1</v>
-      </c>
-      <c r="K41" s="26" t="s">
+      <c r="J41" s="34">
+        <v>1</v>
+      </c>
+      <c r="K41" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="5" t="s">
+    <row r="42" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A42" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="33">
         <v>3</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I42" s="5" t="b">
+      <c r="E42" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I42" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J42" s="26">
-        <v>1</v>
-      </c>
-      <c r="K42" s="26" t="s">
+      <c r="J42" s="34">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="45">
-      <c r="A43" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="5" t="s">
+    <row r="43" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A43" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="33">
         <v>3</v>
       </c>
-      <c r="E43" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="I43" s="5" t="b">
+      <c r="E43" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="I43" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J43" s="26">
-        <v>1</v>
-      </c>
-      <c r="K43" s="26" t="s">
+      <c r="J43" s="34">
+        <v>1</v>
+      </c>
+      <c r="K43" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="18" customFormat="1" ht="30">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="A44" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="30">
         <v>3</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F44" s="18">
         <v>5</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="19">
         <v>45070</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="I44" s="18" t="b">
+      <c r="H44" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="I44" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L44" s="22" t="s">
+      <c r="J44" s="25"/>
+      <c r="K44" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="18" customFormat="1" ht="30">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="A45" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="30">
         <v>3</v>
       </c>
-      <c r="E45" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F45" s="20">
+      <c r="E45" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F45" s="18">
         <v>5</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="19">
         <v>45070</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="I45" s="18" t="b">
+      <c r="H45" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="I45" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="22" t="s">
+      <c r="J45" s="25"/>
+      <c r="K45" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="18" customFormat="1" ht="30">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="A46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="30">
         <v>3</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F46" s="20">
+      <c r="E46" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F46" s="18">
         <v>5</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="19">
         <v>45070</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="I46" s="18" t="b">
+      <c r="H46" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="I46" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="22" t="s">
+      <c r="J46" s="25"/>
+      <c r="K46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3873,20 +4110,20 @@
       <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="28">
         <v>3</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -3903,20 +4140,20 @@
       <c r="C48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="28">
         <v>3</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K48" s="26" t="s">
+      <c r="K48" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -3933,20 +4170,20 @@
       <c r="C49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="28">
         <v>3</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K49" s="26" t="s">
+      <c r="K49" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -3963,62 +4200,63 @@
       <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="28">
         <v>3</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K50" s="26" t="s">
+      <c r="K50" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30">
-      <c r="A51" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="5" t="s">
+    <row r="51" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A51" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="33">
         <v>4</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="35">
         <v>7</v>
       </c>
-      <c r="I51" s="5" t="b">
+      <c r="G51" s="36"/>
+      <c r="I51" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J51" s="26">
-        <v>1</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" s="5" t="s">
+      <c r="J51" s="34">
+        <v>1</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="37" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -4026,20 +4264,20 @@
       <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="28">
         <v>4</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="24">
         <v>3</v>
       </c>
-      <c r="K52" s="26" t="s">
+      <c r="K52" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L52" s="5" t="s">
@@ -4048,7 +4286,7 @@
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -4056,20 +4294,20 @@
       <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="28">
         <v>4</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="24">
         <v>3</v>
       </c>
-      <c r="K53" s="26" t="s">
+      <c r="K53" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L53" s="7" t="s">
@@ -4078,7 +4316,7 @@
     </row>
     <row r="54" spans="1:12" ht="45">
       <c r="A54" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -4086,32 +4324,32 @@
       <c r="C54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="28">
         <v>4</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="24">
         <v>3</v>
       </c>
-      <c r="K54" s="26" t="s">
+      <c r="K54" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -4119,20 +4357,20 @@
       <c r="C55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <v>4</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="24">
         <v>3</v>
       </c>
-      <c r="K55" s="26" t="s">
+      <c r="K55" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L55" s="7" t="s">
@@ -4141,7 +4379,7 @@
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4149,20 +4387,20 @@
       <c r="C56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="28">
         <v>4</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="24">
         <v>3</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K56" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L56" s="7" t="s">
@@ -4171,7 +4409,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4179,20 +4417,20 @@
       <c r="C57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="28">
         <v>4</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="24">
         <v>3</v>
       </c>
-      <c r="K57" s="26" t="s">
+      <c r="K57" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L57" s="7" t="s">
@@ -4201,7 +4439,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4209,20 +4447,20 @@
       <c r="C58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="28">
         <v>4</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="24">
         <v>3</v>
       </c>
-      <c r="K58" s="26" t="s">
+      <c r="K58" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L58" s="7" t="s">
@@ -4231,7 +4469,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4239,20 +4477,20 @@
       <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="28">
         <v>4</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="24">
         <v>3</v>
       </c>
-      <c r="K59" s="26" t="s">
+      <c r="K59" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L59" s="7" t="s">
@@ -4261,7 +4499,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4269,20 +4507,20 @@
       <c r="C60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="28">
         <v>4</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="24">
         <v>3</v>
       </c>
-      <c r="K60" s="26" t="s">
+      <c r="K60" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L60" s="7" t="s">
@@ -4299,17 +4537,17 @@
       <c r="C61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="28">
         <v>4</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K61" s="26" t="s">
+      <c r="K61" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L61" s="7" t="s">
@@ -4326,17 +4564,17 @@
       <c r="C62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="28">
         <v>4</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K62" s="26" t="s">
+      <c r="K62" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L62" s="7" t="s">
@@ -4345,7 +4583,7 @@
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4353,65 +4591,66 @@
       <c r="C63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="28">
         <v>4</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="24" t="s">
         <v>369</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="24">
         <v>3</v>
       </c>
-      <c r="K63" s="26" t="s">
+      <c r="K63" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="45">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A64" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="30">
+      <c r="D64" s="33">
         <v>4</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="35">
         <v>6</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I64" s="5" t="b">
+      <c r="G64" s="36"/>
+      <c r="H64" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="I64" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J64" s="26">
+      <c r="J64" s="34">
         <v>3</v>
       </c>
-      <c r="K64" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L64" s="7" t="s">
+      <c r="K64" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L64" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4419,137 +4658,137 @@
       <c r="C65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="30">
+      <c r="D65" s="28">
         <v>6</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J65" s="24">
         <v>3</v>
       </c>
-      <c r="K65" s="26" t="s">
+      <c r="K65" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A66" s="18" t="s">
+    <row r="66" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A66" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="18" t="s">
+      <c r="B66" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="30">
         <v>5</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="G66" s="19">
+        <v>45070</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="G66" s="21">
+      <c r="I66" s="16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A67" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="30">
+        <v>5</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="G67" s="19">
         <v>45070</v>
       </c>
-      <c r="H66" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="I66" s="18" t="b">
+      <c r="H67" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="I67" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L66" s="22" t="s">
+      <c r="J67" s="25"/>
+      <c r="K67" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L67" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A67" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="32">
+    <row r="68" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A68" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="30">
         <v>5</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E68" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" s="19">
+        <v>45070</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="F67" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="G67" s="21">
-        <v>45070</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="I67" s="18" t="b">
+      <c r="I68" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A68" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" s="32">
-        <v>5</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="G68" s="21">
-        <v>45070</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="I68" s="18" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L68" s="22" t="s">
+      <c r="J68" s="25"/>
+      <c r="K68" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L68" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4563,10 +4802,10 @@
       <c r="C69" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="28">
         <v>6</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -4576,7 +4815,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K69" s="26" t="s">
+      <c r="K69" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L69" s="7" t="s">
@@ -4593,10 +4832,10 @@
       <c r="C70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="28">
         <v>6</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H70" s="5" t="s">
@@ -4606,7 +4845,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K70" s="26" t="s">
+      <c r="K70" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L70" s="7" t="s">
@@ -4623,10 +4862,10 @@
       <c r="C71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71" s="28">
         <v>6</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -4636,7 +4875,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K71" s="26" t="s">
+      <c r="K71" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L71" s="7" t="s">
@@ -4645,7 +4884,7 @@
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4653,10 +4892,10 @@
       <c r="C72" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72" s="28">
         <v>6</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H72" s="5" t="s">
@@ -4666,10 +4905,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="24">
         <v>3</v>
       </c>
-      <c r="K72" s="26" t="s">
+      <c r="K72" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L72" s="7" t="s">
@@ -4678,7 +4917,7 @@
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -4686,10 +4925,10 @@
       <c r="C73" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D73" s="28">
         <v>6</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H73" s="5" t="s">
@@ -4699,10 +4938,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J73" s="26">
+      <c r="J73" s="24">
         <v>3</v>
       </c>
-      <c r="K73" s="26" t="s">
+      <c r="K73" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L73" s="7" t="s">
@@ -4719,10 +4958,10 @@
       <c r="C74" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D74" s="28">
         <v>6</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -4732,7 +4971,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K74" s="26" t="s">
+      <c r="K74" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L74" s="7" t="s">
@@ -4749,10 +4988,10 @@
       <c r="C75" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="28">
         <v>6</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H75" s="5" t="s">
@@ -4762,7 +5001,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K75" s="26" t="s">
+      <c r="K75" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L75" s="7" t="s">
@@ -4779,10 +5018,10 @@
       <c r="C76" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="28">
         <v>6</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H76" s="5" t="s">
@@ -4792,7 +5031,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K76" s="26" t="s">
+      <c r="K76" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L76" s="5" t="s">
@@ -4809,10 +5048,10 @@
       <c r="C77" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="28">
         <v>6</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H77" s="5" t="s">
@@ -4822,121 +5061,121 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K77" s="26" t="s">
+      <c r="K77" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A78" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="18" t="s">
+      <c r="B78" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="30">
         <v>7</v>
       </c>
-      <c r="E78" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F78" s="23" t="s">
+      <c r="E78" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F78" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="19">
         <v>45070</v>
       </c>
-      <c r="H78" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="I78" s="18" t="b">
+      <c r="H78" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="I78" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="22" t="s">
+      <c r="J78" s="25"/>
+      <c r="K78" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A79" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="18" t="s">
+      <c r="B79" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="30">
         <v>7</v>
       </c>
-      <c r="E79" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F79" s="23" t="s">
+      <c r="E79" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F79" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="19">
         <v>45070</v>
       </c>
-      <c r="H79" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="I79" s="18" t="b">
+      <c r="H79" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="I79" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L79" s="22" t="s">
+      <c r="J79" s="25"/>
+      <c r="K79" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A80" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="30">
         <v>7</v>
       </c>
-      <c r="E80" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F80" s="23" t="s">
+      <c r="E80" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="19">
         <v>45070</v>
       </c>
-      <c r="H80" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="I80" s="18" t="b">
+      <c r="H80" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="I80" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L80" s="22" t="s">
+      <c r="J80" s="25"/>
+      <c r="K80" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L80" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4950,10 +5189,10 @@
       <c r="C81" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="30">
+      <c r="D81" s="28">
         <v>7</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -4963,7 +5202,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K81" s="26" t="s">
+      <c r="K81" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L81" s="7" t="s">
@@ -4980,10 +5219,10 @@
       <c r="C82" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="28">
         <v>7</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -4993,47 +5232,47 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K82" s="26" t="s">
+      <c r="K82" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="18" customFormat="1" ht="30">
-      <c r="A83" s="18" t="s">
+    <row r="83" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="A83" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="30">
         <v>7</v>
       </c>
-      <c r="E83" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F83" s="24" t="s">
+      <c r="E83" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F83" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="19">
         <v>45070</v>
       </c>
-      <c r="H83" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="I83" s="18" t="b">
+      <c r="H83" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="I83" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L83" s="22" t="s">
+      <c r="J83" s="25"/>
+      <c r="K83" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L83" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5047,10 +5286,10 @@
       <c r="C84" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -5060,121 +5299,121 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K84" s="26" t="s">
+      <c r="K84" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="18" customFormat="1" ht="60">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:12" s="16" customFormat="1" ht="60">
+      <c r="A85" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D85" s="30">
         <v>7</v>
       </c>
-      <c r="E85" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F85" s="23" t="s">
+      <c r="E85" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="19">
         <v>45070</v>
       </c>
-      <c r="H85" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="I85" s="18" t="b">
+      <c r="H85" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="I85" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L85" s="22" t="s">
+      <c r="J85" s="25"/>
+      <c r="K85" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L85" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A86" s="18" t="s">
+    <row r="86" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A86" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="18" t="s">
+      <c r="B86" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="30">
         <v>7</v>
       </c>
-      <c r="E86" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F86" s="23" t="s">
+      <c r="E86" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="19">
         <v>45070</v>
       </c>
-      <c r="H86" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="I86" s="18" t="b">
+      <c r="H86" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="I86" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L86" s="22" t="s">
+      <c r="J86" s="25"/>
+      <c r="K86" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A87" s="18" t="s">
+    <row r="87" spans="1:12" s="16" customFormat="1" ht="45">
+      <c r="A87" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="18" t="s">
+      <c r="B87" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="30">
         <v>7</v>
       </c>
-      <c r="E87" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F87" s="23" t="s">
+      <c r="E87" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F87" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="19">
         <v>45070</v>
       </c>
-      <c r="H87" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="I87" s="18" t="b">
+      <c r="H87" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="I87" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L87" s="22" t="s">
+      <c r="J87" s="25"/>
+      <c r="K87" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L87" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5188,10 +5427,10 @@
       <c r="C88" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="28">
         <v>7</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H88" s="5" t="s">
@@ -5201,146 +5440,150 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K88" s="26" t="s">
+      <c r="K88" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="30">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A89" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89" s="33">
         <v>7</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="5" t="s">
+      <c r="G89" s="42"/>
+      <c r="H89" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I89" s="5" t="b">
+      <c r="I89" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K89" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L89" s="5" t="s">
+      <c r="J89" s="34"/>
+      <c r="K89" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L89" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="30">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A90" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="B90" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D90" s="33">
         <v>7</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="5" t="s">
+      <c r="G90" s="42"/>
+      <c r="H90" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I90" s="5" t="b">
+      <c r="I90" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K90" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L90" s="5" t="s">
+      <c r="J90" s="34"/>
+      <c r="K90" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L90" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="30">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A91" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="B91" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="33">
         <v>7</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="5" t="s">
+      <c r="G91" s="42"/>
+      <c r="H91" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I91" s="5" t="b">
+      <c r="I91" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K91" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L91" s="5" t="s">
+      <c r="J91" s="34"/>
+      <c r="K91" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L91" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="45">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A92" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="B92" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D92" s="33">
         <v>7</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="5" t="s">
+      <c r="G92" s="42"/>
+      <c r="H92" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I92" s="5" t="b">
+      <c r="I92" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K92" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L92" s="5" t="s">
+      <c r="J92" s="34"/>
+      <c r="K92" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L92" s="37" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5354,10 +5597,10 @@
       <c r="C93" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93" s="28">
         <v>7</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H93" s="5" t="s">
@@ -5367,7 +5610,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K93" s="26" t="s">
+      <c r="K93" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L93" s="5" t="s">
@@ -5384,10 +5627,10 @@
       <c r="C94" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="30">
+      <c r="D94" s="28">
         <v>7</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H94" s="5" t="s">
@@ -5397,7 +5640,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K94" s="26" t="s">
+      <c r="K94" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L94" s="5" t="s">
@@ -5414,10 +5657,10 @@
       <c r="C95" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D95" s="28">
         <v>7</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -5427,7 +5670,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K95" s="26" t="s">
+      <c r="K95" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L95" s="5" t="s">
@@ -5444,10 +5687,10 @@
       <c r="C96" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H96" s="5" t="s">
@@ -5457,7 +5700,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K96" s="26" t="s">
+      <c r="K96" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -5474,10 +5717,10 @@
       <c r="C97" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H97" s="5" t="s">
@@ -5487,47 +5730,47 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K97" s="26" t="s">
+      <c r="K97" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="18" customFormat="1" ht="60">
-      <c r="A98" s="18" t="s">
+    <row r="98" spans="1:12" s="16" customFormat="1" ht="60">
+      <c r="A98" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="F98" s="24" t="s">
+      <c r="E98" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F98" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="19">
         <v>45070</v>
       </c>
-      <c r="H98" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="I98" s="18" t="b">
+      <c r="H98" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="I98" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="L98" s="22" t="s">
+      <c r="J98" s="25"/>
+      <c r="K98" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L98" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5541,10 +5784,10 @@
       <c r="C99" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H99" s="5" t="s">
@@ -5554,7 +5797,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K99" s="26" t="s">
+      <c r="K99" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L99" s="7" t="s">
@@ -5571,10 +5814,10 @@
       <c r="C100" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H100" s="5" t="s">
@@ -5584,7 +5827,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K100" s="26" t="s">
+      <c r="K100" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L100" s="5" t="s">
@@ -5601,10 +5844,10 @@
       <c r="C101" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -5614,7 +5857,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K101" s="26" t="s">
+      <c r="K101" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L101" s="7" t="s">
@@ -5622,19 +5865,19 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="45">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H102" s="5" t="s">
@@ -5644,10 +5887,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K102" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L102" s="11" t="s">
+      <c r="K102" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L102" s="10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5655,16 +5898,16 @@
       <c r="A103" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H103" s="5" t="s">
@@ -5688,10 +5931,10 @@
       <c r="C104" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -5701,11 +5944,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K104" s="26" t="s">
+      <c r="K104" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30">
@@ -5718,10 +5961,10 @@
       <c r="C105" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -5731,7 +5974,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K105" s="26" t="s">
+      <c r="K105" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L105" s="5" t="s">
@@ -5748,10 +5991,10 @@
       <c r="C106" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H106" s="5" t="s">
@@ -5761,7 +6004,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K106" s="26" t="s">
+      <c r="K106" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L106" s="5" t="s">
@@ -5778,10 +6021,10 @@
       <c r="C107" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -5791,11 +6034,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K107" s="26" t="s">
+      <c r="K107" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30">
@@ -5808,10 +6051,10 @@
       <c r="C108" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -5821,11 +6064,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K108" s="28" t="s">
+      <c r="K108" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="60">
@@ -5838,10 +6081,10 @@
       <c r="C109" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -5851,11 +6094,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K109" s="28" t="s">
+      <c r="K109" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="60">
@@ -5868,10 +6111,10 @@
       <c r="C110" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -5881,11 +6124,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K110" s="28" t="s">
+      <c r="K110" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45">
@@ -5898,10 +6141,10 @@
       <c r="C111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -5911,11 +6154,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K111" s="28" t="s">
+      <c r="K111" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45">
@@ -5928,10 +6171,10 @@
       <c r="C112" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -5941,11 +6184,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K112" s="28" t="s">
+      <c r="K112" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45">
@@ -5958,10 +6201,10 @@
       <c r="C113" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -5971,11 +6214,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K113" s="28" t="s">
+      <c r="K113" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45">
@@ -5988,10 +6231,10 @@
       <c r="C114" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -6001,11 +6244,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K114" s="28" t="s">
+      <c r="K114" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="60">
@@ -6018,10 +6261,10 @@
       <c r="C115" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -6031,11 +6274,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K115" s="28" t="s">
+      <c r="K115" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="45">
@@ -6048,10 +6291,10 @@
       <c r="C116" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -6061,11 +6304,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K116" s="28" t="s">
+      <c r="K116" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30">
@@ -6078,10 +6321,10 @@
       <c r="C117" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -6091,11 +6334,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K117" s="28" t="s">
+      <c r="K117" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45">
@@ -6108,10 +6351,10 @@
       <c r="C118" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -6121,11 +6364,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K118" s="28" t="s">
+      <c r="K118" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45">
@@ -6138,10 +6381,10 @@
       <c r="C119" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -6151,11 +6394,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K119" s="28" t="s">
+      <c r="K119" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45">
@@ -6168,10 +6411,10 @@
       <c r="C120" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -6181,11 +6424,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K120" s="28" t="s">
+      <c r="K120" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45">
@@ -6198,10 +6441,10 @@
       <c r="C121" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -6211,11 +6454,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K121" s="28" t="s">
+      <c r="K121" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30">
@@ -6228,10 +6471,10 @@
       <c r="C122" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -6241,11 +6484,11 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K122" s="28" t="s">
+      <c r="K122" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45">
@@ -6258,10 +6501,10 @@
       <c r="C123" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="E123" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -6271,7 +6514,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K123" s="28" t="s">
+      <c r="K123" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L123" s="5" t="s">
@@ -6288,10 +6531,10 @@
       <c r="C124" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -6301,7 +6544,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K124" s="28" t="s">
+      <c r="K124" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L124" s="5" t="s">
@@ -6318,10 +6561,10 @@
       <c r="C125" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -6331,7 +6574,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K125" s="28" t="s">
+      <c r="K125" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L125" s="5" t="s">
@@ -6348,10 +6591,10 @@
       <c r="C126" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -6361,7 +6604,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K126" s="28" t="s">
+      <c r="K126" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L126" s="5" t="s">
@@ -6378,10 +6621,10 @@
       <c r="C127" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -6391,7 +6634,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K127" s="28" t="s">
+      <c r="K127" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L127" s="5" t="s">
@@ -6408,10 +6651,10 @@
       <c r="C128" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -6421,7 +6664,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K128" s="28" t="s">
+      <c r="K128" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L128" s="5" t="s">
@@ -6438,10 +6681,10 @@
       <c r="C129" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -6451,7 +6694,7 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K129" s="28" t="s">
+      <c r="K129" s="26" t="s">
         <v>366</v>
       </c>
       <c r="L129" s="5" t="s">
@@ -6460,18 +6703,18 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D130" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D130" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -6480,10 +6723,10 @@
       <c r="I130" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J130" s="26">
-        <v>1</v>
-      </c>
-      <c r="K130" s="26" t="s">
+      <c r="J130" s="24">
+        <v>1</v>
+      </c>
+      <c r="K130" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
@@ -6492,7 +6735,7 @@
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
@@ -6500,10 +6743,10 @@
       <c r="C131" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -6512,10 +6755,10 @@
       <c r="I131" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J131" s="26">
-        <v>1</v>
-      </c>
-      <c r="K131" s="26" t="s">
+      <c r="J131" s="24">
+        <v>1</v>
+      </c>
+      <c r="K131" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
@@ -6524,18 +6767,18 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="D132" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="D132" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -6544,10 +6787,10 @@
       <c r="I132" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J132" s="26">
-        <v>1</v>
-      </c>
-      <c r="K132" s="26" t="s">
+      <c r="J132" s="24">
+        <v>1</v>
+      </c>
+      <c r="K132" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
@@ -6556,7 +6799,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
@@ -6564,10 +6807,10 @@
       <c r="C133" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -6576,10 +6819,10 @@
       <c r="I133" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J133" s="26">
-        <v>1</v>
-      </c>
-      <c r="K133" s="26" t="s">
+      <c r="J133" s="24">
+        <v>1</v>
+      </c>
+      <c r="K133" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
@@ -6596,10 +6839,10 @@
       <c r="C134" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -6608,7 +6851,7 @@
       <c r="I134" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K134" s="26" t="s">
+      <c r="K134" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L134" s="5" t="s">
@@ -6625,10 +6868,10 @@
       <c r="C135" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -6637,7 +6880,7 @@
       <c r="I135" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K135" s="26" t="s">
+      <c r="K135" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L135" s="5" t="s">
@@ -6654,10 +6897,10 @@
       <c r="C136" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -6666,7 +6909,7 @@
       <c r="I136" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K136" s="26" t="s">
+      <c r="K136" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L136" s="5" t="s">
@@ -6683,10 +6926,10 @@
       <c r="C137" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -6695,7 +6938,7 @@
       <c r="I137" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K137" s="26" t="s">
+      <c r="K137" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L137" s="5" t="s">
@@ -6712,10 +6955,10 @@
       <c r="C138" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -6724,7 +6967,7 @@
       <c r="I138" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K138" s="26" t="s">
+      <c r="K138" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L138" s="5" t="s">
@@ -6741,10 +6984,10 @@
       <c r="C139" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="E139" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -6753,7 +6996,7 @@
       <c r="I139" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K139" s="26" t="s">
+      <c r="K139" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L139" s="5" t="s">
@@ -6770,10 +7013,10 @@
       <c r="C140" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -6782,7 +7025,7 @@
       <c r="I140" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K140" s="26" t="s">
+      <c r="K140" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L140" s="5" t="s">
@@ -6799,10 +7042,10 @@
       <c r="C141" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -6811,7 +7054,7 @@
       <c r="I141" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="26" t="s">
+      <c r="K141" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L141" s="5" t="s">
@@ -6828,10 +7071,10 @@
       <c r="C142" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -6840,7 +7083,7 @@
       <c r="I142" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="26" t="s">
+      <c r="K142" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L142" s="5" t="s">
@@ -6857,10 +7100,10 @@
       <c r="C143" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -6869,7 +7112,7 @@
       <c r="I143" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="26" t="s">
+      <c r="K143" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L143" s="5" t="s">
@@ -6886,10 +7129,10 @@
       <c r="C144" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -6898,7 +7141,7 @@
       <c r="I144" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="26" t="s">
+      <c r="K144" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L144" s="5" t="s">
@@ -6915,10 +7158,10 @@
       <c r="C145" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -6927,7 +7170,7 @@
       <c r="I145" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K145" s="26" t="s">
+      <c r="K145" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L145" s="5" t="s">
@@ -6944,10 +7187,10 @@
       <c r="C146" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D146" s="31" t="s">
+      <c r="D146" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -6956,7 +7199,7 @@
       <c r="I146" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="26" t="s">
+      <c r="K146" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L146" s="5" t="s">
@@ -6973,10 +7216,10 @@
       <c r="C147" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H147" s="5" t="s">
@@ -6985,7 +7228,7 @@
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="26" t="s">
+      <c r="K147" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
@@ -7002,10 +7245,10 @@
       <c r="C148" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H148" s="5" t="s">
@@ -7014,7 +7257,7 @@
       <c r="I148" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K148" s="26" t="s">
+      <c r="K148" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L148" s="7" t="s">
@@ -7031,10 +7274,10 @@
       <c r="C149" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -7043,7 +7286,7 @@
       <c r="I149" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="26" t="s">
+      <c r="K149" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L149" s="7" t="s">
@@ -7060,10 +7303,10 @@
       <c r="C150" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -7072,7 +7315,7 @@
       <c r="I150" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="26" t="s">
+      <c r="K150" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L150" s="7" t="s">
@@ -7089,10 +7332,10 @@
       <c r="C151" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E151" s="26" t="s">
+      <c r="E151" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -7101,7 +7344,7 @@
       <c r="I151" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K151" s="26" t="s">
+      <c r="K151" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L151" s="7" t="s">
@@ -7118,10 +7361,10 @@
       <c r="C152" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -7130,7 +7373,7 @@
       <c r="I152" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="26" t="s">
+      <c r="K152" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L152" s="7" t="s">
@@ -7147,10 +7390,10 @@
       <c r="C153" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -7159,7 +7402,7 @@
       <c r="I153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K153" s="26" t="s">
+      <c r="K153" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L153" s="7" t="s">
@@ -7176,10 +7419,10 @@
       <c r="C154" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -7188,7 +7431,7 @@
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="26" t="s">
+      <c r="K154" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L154" s="5" t="s">
@@ -7205,10 +7448,10 @@
       <c r="C155" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="E155" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -7217,7 +7460,7 @@
       <c r="I155" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="26" t="s">
+      <c r="K155" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L155" s="5" t="s">
@@ -7234,10 +7477,10 @@
       <c r="C156" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -7246,7 +7489,7 @@
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="26" t="s">
+      <c r="K156" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L156" s="5" t="s">
@@ -7255,7 +7498,7 @@
     </row>
     <row r="157" spans="1:12" ht="30">
       <c r="A157" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
@@ -7263,28 +7506,31 @@
       <c r="C157" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I157" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K157" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J157" s="24">
+        <v>1</v>
+      </c>
+      <c r="K157" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="A158" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
@@ -7292,28 +7538,31 @@
       <c r="C158" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D158" s="31" t="s">
+      <c r="D158" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I158" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K158" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J158" s="24">
+        <v>1</v>
+      </c>
+      <c r="K158" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="A159" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
@@ -7321,28 +7570,31 @@
       <c r="C159" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I159" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K159" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J159" s="24">
+        <v>1</v>
+      </c>
+      <c r="K159" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="A160" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
@@ -7350,28 +7602,31 @@
       <c r="C160" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I160" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K160" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J160" s="24">
+        <v>1</v>
+      </c>
+      <c r="K160" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
@@ -7379,28 +7634,31 @@
       <c r="C161" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D161" s="31" t="s">
+      <c r="D161" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I161" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K161" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J161" s="24">
+        <v>1</v>
+      </c>
+      <c r="K161" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="A162" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
@@ -7408,28 +7666,31 @@
       <c r="C162" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I162" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J162" s="24">
+        <v>1</v>
+      </c>
+      <c r="K162" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="A163" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
@@ -7437,28 +7698,31 @@
       <c r="C163" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D163" s="31" t="s">
+      <c r="D163" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I163" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K163" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J163" s="24">
+        <v>1</v>
+      </c>
+      <c r="K163" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="A164" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
@@ -7466,28 +7730,31 @@
       <c r="C164" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I164" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K164" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J164" s="24">
+        <v>1</v>
+      </c>
+      <c r="K164" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="A165" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
@@ -7495,28 +7762,31 @@
       <c r="C165" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I165" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K165" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" s="24">
+        <v>1</v>
+      </c>
+      <c r="K165" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30">
       <c r="A166" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
@@ -7524,28 +7794,31 @@
       <c r="C166" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I166" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K166" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J166" s="24">
+        <v>1</v>
+      </c>
+      <c r="K166" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
@@ -7553,28 +7826,31 @@
       <c r="C167" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I167" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K167" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J167" s="24">
+        <v>1</v>
+      </c>
+      <c r="K167" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
@@ -7582,222 +7858,247 @@
       <c r="C168" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I168" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K168" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J168" s="24">
+        <v>1</v>
+      </c>
+      <c r="K168" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="A169" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D169" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="D169" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E169" s="26" t="s">
+      <c r="E169" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I169" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K169" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J169" s="24">
+        <v>1</v>
+      </c>
+      <c r="K169" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="A170" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D170" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D170" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E170" s="26" t="s">
+      <c r="E170" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I170" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K170" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J170" s="24">
+        <v>1</v>
+      </c>
+      <c r="K170" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D171" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D171" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I171" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K171" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J171" s="24">
+        <v>1</v>
+      </c>
+      <c r="K171" s="24" t="s">
         <v>116</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="A172" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H172" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="I172" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" s="24">
+        <v>1</v>
+      </c>
+      <c r="K172" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="37" customFormat="1" ht="75">
+      <c r="A173" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="D173" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="E172" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I172" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K172" s="26" t="s">
+      <c r="E173" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F173" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G173" s="36"/>
+      <c r="H173" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="I173" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" s="34">
+        <v>1</v>
+      </c>
+      <c r="K173" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L172" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="30">
-      <c r="A173" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D173" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="E173" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I173" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K173" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="L173" s="5" t="s">
-        <v>423</v>
+      <c r="L173" s="37" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="A174" s="5" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D174" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E174" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E174" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>449</v>
+        <v>577</v>
       </c>
       <c r="I174" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K174" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L174" s="7" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="J174" s="24">
+        <v>1</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30">
       <c r="A175" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D175" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E175" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E175" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K175" s="26" t="s">
+      <c r="K175" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L175" s="7" t="s">
@@ -7806,27 +8107,27 @@
     </row>
     <row r="176" spans="1:12" ht="30">
       <c r="A176" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D176" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="D176" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E176" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K176" s="26" t="s">
+      <c r="K176" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L176" s="7" t="s">
@@ -7835,56 +8136,56 @@
     </row>
     <row r="177" spans="1:12" ht="30">
       <c r="A177" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D177" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E177" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E177" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="26" t="s">
+      <c r="K177" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L177" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="45">
+    <row r="178" spans="1:12" ht="30">
       <c r="A178" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D178" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D178" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="26" t="s">
+      <c r="K178" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L178" s="7" t="s">
@@ -7893,417 +8194,417 @@
     </row>
     <row r="179" spans="1:12" ht="45">
       <c r="A179" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H179" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D179" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E179" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K179" s="26" t="s">
+      <c r="K179" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L179" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" ht="45">
       <c r="A180" s="5" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I180" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K180" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L180" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I181" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="D180" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E180" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="I180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="L180" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="30">
-      <c r="A181" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D181" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E181" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="I181" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" s="26" t="s">
-        <v>453</v>
-      </c>
       <c r="L181" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D182" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E182" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E182" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I182" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K182" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="L182" s="17" t="s">
-        <v>464</v>
+        <v>1</v>
+      </c>
+      <c r="K182" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H183" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D183" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E183" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H183" s="5" t="s">
+      <c r="I183" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I183" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K183" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="L183" s="16" t="s">
+      <c r="L183" s="15" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D184" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E184" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E184" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H184" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I184" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I184" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K184" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="L184" s="16" t="s">
-        <v>463</v>
+      <c r="L184" s="14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="L185" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="30">
+      <c r="A186" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D186" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
+      <c r="E186" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L186" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D185" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="E185" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="I185" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K185" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="45">
-      <c r="A186" s="5" t="s">
+    </row>
+    <row r="187" spans="1:12" ht="45">
+      <c r="A187" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="D187" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I187" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H188" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D186" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="I186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K186" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L186" s="5" t="s">
+      <c r="I188" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J188" s="24">
+        <v>3</v>
+      </c>
+      <c r="K188" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L188" s="7" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" t="s">
-        <v>505</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D187" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="E187" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="I187" s="5" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="J187" s="26">
-        <v>3</v>
-      </c>
-      <c r="K187" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L187" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="30">
-      <c r="A188" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D188" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="E188" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="I188" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" s="26">
-        <v>3</v>
-      </c>
-      <c r="K188" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L188" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="A189" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D189" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="D189" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J189" s="26">
+      <c r="J189" s="24">
         <v>3</v>
       </c>
-      <c r="K189" s="26" t="s">
+      <c r="K189" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30">
       <c r="A190" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E190" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J190" s="26">
+      <c r="J190" s="24">
         <v>3</v>
       </c>
-      <c r="K190" s="26" t="s">
+      <c r="K190" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30">
       <c r="A191" s="5" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D191" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="E191" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="D191" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E191" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="I191" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K191" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L191" s="7" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="J191" s="24">
+        <v>3</v>
+      </c>
+      <c r="K191" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30">
       <c r="A192" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D192" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="D192" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="26" t="s">
+      <c r="K192" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L192" s="7" t="s">
@@ -8312,27 +8613,27 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="A193" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D193" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="E193" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K193" s="26" t="s">
+      <c r="K193" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L193" s="7" t="s">
@@ -8341,36 +8642,36 @@
     </row>
     <row r="194" spans="1:12" ht="30">
       <c r="A194" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D194" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="E194" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E194" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K194" s="26" t="s">
+      <c r="K194" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L194" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="45">
+    <row r="195" spans="1:12" ht="30">
       <c r="A195" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
@@ -8378,19 +8679,19 @@
       <c r="C195" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="D195" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="E195" s="26" t="s">
+      <c r="D195" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E195" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K195" s="26" t="s">
+      <c r="K195" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L195" s="7" t="s">
@@ -8399,101 +8700,614 @@
     </row>
     <row r="196" spans="1:12" ht="45">
       <c r="A196" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H196" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D196" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>539</v>
-      </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K196" s="26" t="s">
+      <c r="K196" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L196" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
-      <c r="A197" t="s">
+    <row r="197" spans="1:12" ht="45">
+      <c r="A197" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I197" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K197" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L197" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" t="s">
+        <v>540</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D197" s="30" t="s">
+      <c r="D198" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H198" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="E197" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="I197" s="5" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="J197" s="26">
-        <v>3</v>
-      </c>
-      <c r="K197" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L197" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="30">
-      <c r="A198" t="s">
-        <v>543</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D198" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="I198" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J198" s="26">
+      <c r="J198" s="24">
         <v>3</v>
       </c>
-      <c r="K198" s="26" t="s">
+      <c r="K198" s="24" t="s">
         <v>117</v>
       </c>
       <c r="L198" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="30">
+      <c r="A199" t="s">
+        <v>541</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I199" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J199" s="24">
+        <v>3</v>
+      </c>
+      <c r="K199" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="30">
+      <c r="A200" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I200" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J200" s="24">
+        <v>1</v>
+      </c>
+      <c r="K200" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="30">
+      <c r="A201" s="5" t="s">
         <v>548</v>
       </c>
+      <c r="B201" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I201" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J201" s="24">
+        <v>1</v>
+      </c>
+      <c r="K201" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L201" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="30">
+      <c r="A202" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I202" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J202" s="24">
+        <v>1</v>
+      </c>
+      <c r="K202" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="30">
+      <c r="A203" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I203" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J203" s="24">
+        <v>1</v>
+      </c>
+      <c r="K203" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L203" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="30">
+      <c r="A204" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D204" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I204" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="24">
+        <v>1</v>
+      </c>
+      <c r="K204" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="30">
+      <c r="A205" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I205" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="24">
+        <v>1</v>
+      </c>
+      <c r="K205" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L205" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I206" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="24">
+        <v>1</v>
+      </c>
+      <c r="K206" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="30">
+      <c r="A207" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E207" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I207" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="24">
+        <v>1</v>
+      </c>
+      <c r="K207" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L207" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I208" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="24">
+        <v>1</v>
+      </c>
+      <c r="K208" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I209" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" s="24">
+        <v>1</v>
+      </c>
+      <c r="K209" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L209" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I210" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" s="24">
+        <v>1</v>
+      </c>
+      <c r="K210" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="30">
+      <c r="A211" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I211" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" s="24">
+        <v>1</v>
+      </c>
+      <c r="K211" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L211" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="30">
+      <c r="A212" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I212" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="24">
+        <v>1</v>
+      </c>
+      <c r="K212" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="30">
+      <c r="A213" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I213" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="24">
+        <v>1</v>
+      </c>
+      <c r="K213" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L213" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="30">
+      <c r="A214" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I214" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="24">
+        <v>1</v>
+      </c>
+      <c r="K214" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L214" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC171C0-816C-44EE-A97F-8DC3A2D4F982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8D209-1B24-472B-863E-ADA67EB32DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="26715" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -1442,9 +1442,6 @@
     <t>urn:oasis:names:specification:ubl:schema:xsd:WeightStatement-2::WeightStatement##urn:fdc:peppol.eu:logistics:trns:weight_statement:1::2.3</t>
   </si>
   <si>
-    <t>TICC-215</t>
-  </si>
-  <si>
     <t>Issued by OpenPeppol?</t>
   </si>
   <si>
@@ -1459,15 +1456,6 @@
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_only:1
 cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_w_response:1</t>
-  </si>
-  <si>
-    <t>Logistics Advanced Despatch Advice</t>
-  </si>
-  <si>
-    <t>Logistics Despatch Advice Response</t>
-  </si>
-  <si>
-    <t>Logistics Weight Statement</t>
   </si>
   <si>
     <t>PL Dokument pomocniczy ver. 1.0</t>
@@ -1857,6 +1845,19 @@
     <t>TICC-199
 TICC-252
 Typo in Customization ID</t>
+  </si>
+  <si>
+    <t>Advanced Despatch Advice</t>
+  </si>
+  <si>
+    <t>Despatch Advice Response</t>
+  </si>
+  <si>
+    <t>Weight Statement</t>
+  </si>
+  <si>
+    <t>TICC-215
+TICC-255</t>
   </si>
 </sst>
 </file>
@@ -2509,8 +2510,8 @@
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2556,7 +2557,7 @@
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>114</v>
@@ -3587,7 +3588,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3739,7 +3740,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3769,7 +3770,7 @@
     </row>
     <row r="38" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A38" s="37" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>56</v>
@@ -3784,11 +3785,11 @@
         <v>368</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I38" s="37" t="b">
         <f>TRUE</f>
@@ -3806,7 +3807,7 @@
     </row>
     <row r="39" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A39" s="37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>56</v>
@@ -3821,11 +3822,11 @@
         <v>368</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I39" s="37" t="b">
         <f>TRUE</f>
@@ -3843,7 +3844,7 @@
     </row>
     <row r="40" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A40" s="37" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>56</v>
@@ -3858,11 +3859,11 @@
         <v>368</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I40" s="37" t="b">
         <f>TRUE</f>
@@ -3880,7 +3881,7 @@
     </row>
     <row r="41" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A41" s="37" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>56</v>
@@ -3895,11 +3896,11 @@
         <v>368</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I41" s="37" t="b">
         <f>TRUE</f>
@@ -3917,7 +3918,7 @@
     </row>
     <row r="42" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A42" s="37" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>56</v>
@@ -3932,11 +3933,11 @@
         <v>368</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I42" s="37" t="b">
         <f>TRUE</f>
@@ -3954,7 +3955,7 @@
     </row>
     <row r="43" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A43" s="37" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>56</v>
@@ -3969,11 +3970,11 @@
         <v>368</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I43" s="37" t="b">
         <f>TRUE</f>
@@ -4003,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F44" s="18">
         <v>5</v>
@@ -4012,7 +4013,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I44" s="16" t="b">
         <f>FALSE</f>
@@ -4040,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F45" s="18">
         <v>5</v>
@@ -4049,7 +4050,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I45" s="16" t="b">
         <f>FALSE</f>
@@ -4077,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F46" s="18">
         <v>5</v>
@@ -4086,7 +4087,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I46" s="16" t="b">
         <f>FALSE</f>
@@ -4222,7 +4223,7 @@
     </row>
     <row r="51" spans="1:12" s="37" customFormat="1" ht="30">
       <c r="A51" s="37" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>56</v>
@@ -4256,7 +4257,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -4286,7 +4287,7 @@
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -4316,7 +4317,7 @@
     </row>
     <row r="54" spans="1:12" ht="45">
       <c r="A54" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -4331,7 +4332,7 @@
         <v>369</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -4344,12 +4345,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -4379,7 +4380,7 @@
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4409,7 +4410,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4439,7 +4440,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4469,7 +4470,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4499,7 +4500,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4583,7 +4584,7 @@
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4650,7 +4651,7 @@
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4695,16 +4696,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G66" s="19">
         <v>45070</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I66" s="16" t="b">
         <f>FALSE</f>
@@ -4732,16 +4733,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G67" s="19">
         <v>45070</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I67" s="16" t="b">
         <f>FALSE</f>
@@ -4769,16 +4770,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G68" s="19">
         <v>45070</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I68" s="16" t="b">
         <f>FALSE</f>
@@ -4884,7 +4885,7 @@
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4917,7 +4918,7 @@
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -5082,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>206</v>
@@ -5091,7 +5092,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I78" s="16" t="b">
         <f>FALSE</f>
@@ -5119,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>206</v>
@@ -5128,7 +5129,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I79" s="16" t="b">
         <f>FALSE</f>
@@ -5156,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>206</v>
@@ -5165,7 +5166,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I80" s="16" t="b">
         <f>FALSE</f>
@@ -5253,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>245</v>
@@ -5262,7 +5263,7 @@
         <v>45070</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I83" s="16" t="b">
         <f>FALSE</f>
@@ -5320,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>206</v>
@@ -5329,7 +5330,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I85" s="16" t="b">
         <f>FALSE</f>
@@ -5357,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F86" s="21" t="s">
         <v>206</v>
@@ -5366,7 +5367,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I86" s="16" t="b">
         <f>FALSE</f>
@@ -5394,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F87" s="21" t="s">
         <v>206</v>
@@ -5403,7 +5404,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I87" s="16" t="b">
         <f>FALSE</f>
@@ -5751,7 +5752,7 @@
         <v>206</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>245</v>
@@ -5760,7 +5761,7 @@
         <v>45070</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I98" s="16" t="b">
         <f>FALSE</f>
@@ -6703,13 +6704,13 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D130" s="29" t="s">
         <v>297</v>
@@ -6735,7 +6736,7 @@
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
@@ -6767,13 +6768,13 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D132" s="29" t="s">
         <v>297</v>
@@ -6799,7 +6800,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
@@ -7888,7 +7889,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D169" s="29" t="s">
         <v>297</v>
@@ -8010,13 +8011,13 @@
     </row>
     <row r="173" spans="1:12" s="37" customFormat="1" ht="75">
       <c r="A173" s="37" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D173" s="38" t="s">
         <v>297</v>
@@ -8025,11 +8026,11 @@
         <v>368</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G173" s="36"/>
       <c r="H173" s="37" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I173" s="37" t="b">
         <v>1</v>
@@ -8052,16 +8053,16 @@
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E174" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>1</v>
@@ -8252,7 +8253,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>56</v>
@@ -8281,7 +8282,7 @@
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
@@ -8310,7 +8311,7 @@
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
@@ -8325,21 +8326,21 @@
         <v>369</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>457</v>
+        <v>590</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K183" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L183" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>464</v>
+        <v>588</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
@@ -8354,21 +8355,21 @@
         <v>369</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>457</v>
+        <v>590</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K184" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="L184" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="L184" s="14" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
-        <v>465</v>
+        <v>589</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
@@ -8383,37 +8384,37 @@
         <v>369</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>457</v>
+        <v>590</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K185" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L185" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30">
       <c r="A186" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H186" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D186" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="I186" s="5" t="b">
         <v>0</v>
       </c>
@@ -8421,27 +8422,27 @@
         <v>117</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="45">
       <c r="A187" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E187" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I187" s="5" t="b">
         <v>0</v>
@@ -8455,22 +8456,22 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E188" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I188" s="5" t="b">
         <f>TRUE</f>
@@ -8488,22 +8489,22 @@
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="A189" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E189" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
@@ -8515,27 +8516,27 @@
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30">
       <c r="A190" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E190" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
@@ -8547,27 +8548,27 @@
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30">
       <c r="A191" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E191" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>1</v>
@@ -8579,27 +8580,27 @@
         <v>117</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30">
       <c r="A192" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="D192" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E192" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
@@ -8613,22 +8614,22 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="A193" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D193" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E193" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
@@ -8642,22 +8643,22 @@
     </row>
     <row r="194" spans="1:12" ht="30">
       <c r="A194" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E194" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
@@ -8671,22 +8672,22 @@
     </row>
     <row r="195" spans="1:12" ht="30">
       <c r="A195" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D195" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E195" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
@@ -8700,22 +8701,22 @@
     </row>
     <row r="196" spans="1:12" ht="45">
       <c r="A196" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E196" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -8729,22 +8730,22 @@
     </row>
     <row r="197" spans="1:12" ht="45">
       <c r="A197" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H197" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D197" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="I197" s="5" t="b">
         <v>0</v>
@@ -8758,22 +8759,22 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E198" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I198" s="5" t="b">
         <f>TRUE</f>
@@ -8786,27 +8787,27 @@
         <v>117</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="30">
       <c r="A199" t="s">
+        <v>537</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H199" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D199" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="I199" s="5" t="b">
         <f>TRUE</f>
@@ -8819,27 +8820,27 @@
         <v>117</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="30">
       <c r="A200" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H200" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D200" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="E200" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="I200" s="5" t="b">
         <f>TRUE</f>
@@ -8852,27 +8853,27 @@
         <v>116</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="30">
       <c r="A201" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E201" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I201" s="5" t="b">
         <f>TRUE</f>
@@ -8885,27 +8886,27 @@
         <v>116</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="30">
       <c r="A202" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E202" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I202" s="5" t="b">
         <f>TRUE</f>
@@ -8918,27 +8919,27 @@
         <v>116</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="30">
       <c r="A203" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E203" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I203" s="5" t="b">
         <f>TRUE</f>
@@ -8951,27 +8952,27 @@
         <v>116</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="30">
       <c r="A204" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E204" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>1</v>
@@ -8983,27 +8984,27 @@
         <v>116</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="30">
       <c r="A205" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E205" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>1</v>
@@ -9015,27 +9016,27 @@
         <v>116</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E206" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I206" s="5" t="b">
         <v>1</v>
@@ -9047,27 +9048,27 @@
         <v>116</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="30">
       <c r="A207" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E207" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I207" s="5" t="b">
         <v>1</v>
@@ -9079,27 +9080,27 @@
         <v>116</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E208" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I208" s="5" t="b">
         <v>1</v>
@@ -9111,27 +9112,27 @@
         <v>116</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E209" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I209" s="5" t="b">
         <v>1</v>
@@ -9143,27 +9144,27 @@
         <v>116</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E210" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I210" s="5" t="b">
         <v>1</v>
@@ -9175,27 +9176,27 @@
         <v>116</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="30">
       <c r="A211" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E211" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I211" s="5" t="b">
         <v>1</v>
@@ -9207,27 +9208,27 @@
         <v>116</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="30">
       <c r="A212" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E212" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>1</v>
@@ -9239,27 +9240,27 @@
         <v>116</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="30">
       <c r="A213" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E213" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>1</v>
@@ -9271,27 +9272,27 @@
         <v>116</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="30">
       <c r="A214" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E214" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>1</v>
@@ -9303,7 +9304,7 @@
         <v>116</v>
       </c>
       <c r="L214" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
